--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\backend_pawm\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B0DCB-8E7E-46C9-A506-B7C91F60334F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770C127-78B1-4DE8-BDA4-D0FFF44D256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -33,26 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://progettopawm.ns0.it:8090/api</t>
-  </si>
-  <si>
     <t>DESCRIZIONE</t>
   </si>
   <si>
     <t>Indirizzo api</t>
   </si>
   <si>
-    <t>authentication</t>
-  </si>
-  <si>
-    <t>authentication/userLogin</t>
-  </si>
-  <si>
     <t>Metodo</t>
   </si>
   <si>
@@ -65,30 +56,18 @@
     <t>nome, cognome, email, password</t>
   </si>
   <si>
-    <t>authentication/addUser</t>
-  </si>
-  <si>
     <t>Inserisce un nuovo utente</t>
   </si>
   <si>
     <t>email, password</t>
   </si>
   <si>
-    <t>authentication/logout</t>
-  </si>
-  <si>
     <t>Disconnette un utente</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>autori</t>
-  </si>
-  <si>
-    <t>autori/addAutore</t>
-  </si>
-  <si>
     <t>Inserisce un nuovo autore</t>
   </si>
   <si>
@@ -104,57 +83,30 @@
     <t>Ritorna tutti i libri scritti da un autore</t>
   </si>
   <si>
-    <t>download</t>
-  </si>
-  <si>
     <t>Scarica l'immagine di copertina dal FS del server</t>
   </si>
   <si>
-    <t>download/:copertina</t>
-  </si>
-  <si>
     <t>genere</t>
   </si>
   <si>
-    <t>genere/getAllKinds</t>
-  </si>
-  <si>
     <t>Ritorna tutti i generi</t>
   </si>
   <si>
     <t>Inserisce un nuovo genere</t>
   </si>
   <si>
-    <t>libri</t>
-  </si>
-  <si>
-    <t>libri/getAll</t>
-  </si>
-  <si>
     <t>Ritorna tutti i libri</t>
   </si>
   <si>
     <t>Ritorna gli autori di un libro</t>
   </si>
   <si>
-    <t>prenotazioni</t>
-  </si>
-  <si>
-    <t>prenotazioni/libriUtente/:utente</t>
-  </si>
-  <si>
     <t>Ritorna tutti i libri prenotati da un utente</t>
   </si>
   <si>
-    <t>prenotazioni/numberLibriUtente/:utente</t>
-  </si>
-  <si>
     <t>Ritorna il numero di libri prenotati da un utente</t>
   </si>
   <si>
-    <t>prenotazioni/addPrenotazione</t>
-  </si>
-  <si>
     <t>Inserisce una nuova prenotazione</t>
   </si>
   <si>
@@ -164,60 +116,27 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>prenotazioi/daRestituire/:utente</t>
-  </si>
-  <si>
     <t>Ritorna tutti i libri che deve restituire un utente</t>
   </si>
   <si>
-    <t>upload</t>
-  </si>
-  <si>
-    <t>upload/caricaLibro</t>
-  </si>
-  <si>
     <t>Esegue il caricamento di un libro</t>
   </si>
   <si>
     <t>titolo, data, quantita, copertina, genere</t>
   </si>
   <si>
-    <t>genere/addGenere</t>
-  </si>
-  <si>
-    <t>authentication/adminLogin</t>
-  </si>
-  <si>
     <t>Esegue il login dell'amministratore</t>
   </si>
   <si>
     <t>utente, password</t>
   </si>
   <si>
-    <t>libri/getBookAuthors/:libro</t>
-  </si>
-  <si>
-    <t>libri/getBook/:id</t>
-  </si>
-  <si>
     <t>Ritorna i dettagli di un libro dato l'ID</t>
   </si>
   <si>
     <t>Cerca un libro in base al titolo</t>
   </si>
   <si>
-    <t>libri/cercaLibro/:titolo</t>
-  </si>
-  <si>
-    <t>grafici</t>
-  </si>
-  <si>
-    <t>grafici/getNumberLibriMese/:id</t>
-  </si>
-  <si>
-    <t>grafici/getGeneriUtente/:id</t>
-  </si>
-  <si>
     <t>Ritorna il numero dei libri letti per ogni genere da un utente</t>
   </si>
   <si>
@@ -227,31 +146,115 @@
     <t>Ritorna i libri prenotati da un utente non ripetuti e un capo vettoriale con le date di prenotazione</t>
   </si>
   <si>
-    <t>prenotazioni/getBookPrenotations/:utente</t>
-  </si>
-  <si>
-    <t>prenotazione/returnBook/:prenotazione</t>
-  </si>
-  <si>
     <t>dataRestituzione</t>
   </si>
   <si>
     <t>Restituisce un libro prenotato</t>
   </si>
   <si>
-    <t>grafici/getAllNumberLibriMese</t>
-  </si>
-  <si>
     <t>Ritorna il numero di libri letti dai vari utenti nei mesi</t>
   </si>
   <si>
-    <t>grafici/getAllGeneri</t>
-  </si>
-  <si>
     <t>Ritorna il numero dei libri letti per ogni genere dagli utenti</t>
   </si>
   <si>
-    <t>Token jwt inviato in fase di registrazione/accesso, usarlo nelle altre chiamate inserendolo nel campo Authentication nell'header</t>
+    <t>http://g0ptrkwkej5fhqfl.myfritz.net:8090/api</t>
+  </si>
+  <si>
+    <t>/userLogin</t>
+  </si>
+  <si>
+    <t>authentication (/authentication)</t>
+  </si>
+  <si>
+    <t>/addUser</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t>/adminLogin</t>
+  </si>
+  <si>
+    <t>autori (/autori)</t>
+  </si>
+  <si>
+    <t>/addAutore</t>
+  </si>
+  <si>
+    <t>download (/dowload)</t>
+  </si>
+  <si>
+    <t>/:copertina</t>
+  </si>
+  <si>
+    <t>genere (/genere)</t>
+  </si>
+  <si>
+    <t>/getAllKinds</t>
+  </si>
+  <si>
+    <t>/addGenere</t>
+  </si>
+  <si>
+    <t>libri (/libri)</t>
+  </si>
+  <si>
+    <t>/getAll</t>
+  </si>
+  <si>
+    <t>/getBookAuthors/:libro</t>
+  </si>
+  <si>
+    <t>/getBook/:id</t>
+  </si>
+  <si>
+    <t>/cercaLibro/:titolo</t>
+  </si>
+  <si>
+    <t>prenotazioni (/prenotazioni)</t>
+  </si>
+  <si>
+    <t>/libriUtente/:utente</t>
+  </si>
+  <si>
+    <t>/numberLibriUtente/:utente</t>
+  </si>
+  <si>
+    <t>/addPrenotazione</t>
+  </si>
+  <si>
+    <t>/returnBook/:prenotazione</t>
+  </si>
+  <si>
+    <t>/daRestituire/:utente</t>
+  </si>
+  <si>
+    <t>/getBookPrenotations/:utente</t>
+  </si>
+  <si>
+    <t>/caricaLibro</t>
+  </si>
+  <si>
+    <t>upload (/upload)</t>
+  </si>
+  <si>
+    <t>/getNumberLibriMese/:id</t>
+  </si>
+  <si>
+    <t>/getGeneriUtente/:id</t>
+  </si>
+  <si>
+    <t>/getAllNumberLibriMese</t>
+  </si>
+  <si>
+    <t>/getAllGeneri</t>
+  </si>
+  <si>
+    <t>grafici (/grafici)</t>
+  </si>
+  <si>
+    <t>Token jwt inviato in fase di accesso, usarlo nelle altre chiamate inserendolo nel campo Authentication nell'header</t>
   </si>
 </sst>
 </file>
@@ -283,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -305,13 +300,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -386,64 +394,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -760,416 +761,416 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="7"/>
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\backend_pawm\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770C127-78B1-4DE8-BDA4-D0FFF44D256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA30A98-AEDF-4C37-818A-9BA88DB27D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>email, password</t>
   </si>
   <si>
-    <t>Disconnette un utente</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>/addUser</t>
   </si>
   <si>
-    <t>/logout</t>
-  </si>
-  <si>
     <t>/adminLogin</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>Token jwt inviato in fase di accesso, usarlo nelle altre chiamate inserendolo nel campo Authentication nell'header</t>
+  </si>
+  <si>
+    <t>/getUsers</t>
+  </si>
+  <si>
+    <t>Ritorna tutti gli utenti</t>
   </si>
 </sst>
 </file>
@@ -411,6 +411,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,7 +421,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -761,7 +761,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,12 +783,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>41</v>
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -797,24 +797,24 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -842,333 +842,333 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="6"/>
     </row>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\backend_pawm\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA30A98-AEDF-4C37-818A-9BA88DB27D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770C127-78B1-4DE8-BDA4-D0FFF44D256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -62,6 +62,9 @@
     <t>email, password</t>
   </si>
   <si>
+    <t>Disconnette un utente</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>/addUser</t>
   </si>
   <si>
+    <t>/logout</t>
+  </si>
+  <si>
     <t>/adminLogin</t>
   </si>
   <si>
@@ -249,12 +255,6 @@
   </si>
   <si>
     <t>Token jwt inviato in fase di accesso, usarlo nelle altre chiamate inserendolo nel campo Authentication nell'header</t>
-  </si>
-  <si>
-    <t>/getUsers</t>
-  </si>
-  <si>
-    <t>Ritorna tutti gli utenti</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,15 +420,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,6 +432,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -761,7 +761,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,12 +783,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
+      <c r="A2" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -797,24 +797,24 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -842,333 +842,333 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="6"/>
     </row>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\backend_pawm\Documentazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\library_backend\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770C127-78B1-4DE8-BDA4-D0FFF44D256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFEE9A7-733C-4BF3-A79B-7A95771880F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>email, password</t>
   </si>
   <si>
-    <t>Disconnette un utente</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>/addUser</t>
   </si>
   <si>
-    <t>/logout</t>
-  </si>
-  <si>
     <t>/adminLogin</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>Token jwt inviato in fase di accesso, usarlo nelle altre chiamate inserendolo nel campo Authentication nell'header</t>
+  </si>
+  <si>
+    <t>/getUsers</t>
+  </si>
+  <si>
+    <t>Ritorna tutti gli utenti</t>
   </si>
 </sst>
 </file>
@@ -411,6 +411,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,7 +421,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -761,7 +761,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,12 +783,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>41</v>
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -797,24 +797,24 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -842,333 +842,333 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="6"/>
     </row>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\library_backend\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFEE9A7-733C-4BF3-A79B-7A95771880F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE852B48-249B-4D2D-9701-30A3947DADC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>URL</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>Ritorna tutti gli utenti</t>
+  </si>
+  <si>
+    <t>/associaAutore</t>
+  </si>
+  <si>
+    <t>Permette di inserire gli autori di un libro</t>
+  </si>
+  <si>
+    <t>libro, autore</t>
   </si>
 </sst>
 </file>
@@ -758,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51079965-0911-4C16-8846-B27DF99EC931}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,146 +1011,148 @@
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="6"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1150,10 +1161,10 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1162,27 +1173,39 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8CE0C006-B22F-4FDC-94F5-58FC348B0108}"/>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\library_backend\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE852B48-249B-4D2D-9701-30A3947DADC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23795E0D-B330-4E84-B029-4C5400B46F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>Esegue il caricamento di un libro</t>
   </si>
   <si>
-    <t>titolo, data, quantita, copertina, genere</t>
-  </si>
-  <si>
     <t>Esegue il login dell'amministratore</t>
   </si>
   <si>
@@ -264,13 +261,16 @@
   </si>
   <si>
     <t>libro, autore</t>
+  </si>
+  <si>
+    <t>titolo, genere, trama, copertina, quantita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,7 +416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -421,13 +429,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,18 +447,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
@@ -769,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51079965-0911-4C16-8846-B27DF99EC931}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +806,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -806,24 +815,24 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -837,7 +846,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -851,10 +860,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -863,29 +872,29 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -910,16 +919,16 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -930,16 +939,16 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -951,7 +960,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -964,16 +973,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -985,7 +994,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -997,10 +1006,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
@@ -1009,10 +1018,10 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1021,29 +1030,29 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1055,7 +1064,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -1067,7 +1076,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -1081,21 +1090,21 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -1107,10 +1116,10 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1118,16 +1127,16 @@
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
@@ -1136,12 +1145,12 @@
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1149,10 +1158,10 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1161,10 +1170,10 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1173,22 +1182,22 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\library_backend\Documentazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\library_backend\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23795E0D-B330-4E84-B029-4C5400B46F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DEBD1C-B4CC-408A-89FE-86BCFE299081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>URL</t>
   </si>
@@ -119,6 +119,9 @@
     <t>Esegue il caricamento di un libro</t>
   </si>
   <si>
+    <t>titolo, data, quantita, copertina, genere</t>
+  </si>
+  <si>
     <t>Esegue il login dell'amministratore</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
     <t>/getBook/:id</t>
   </si>
   <si>
-    <t>/cercaLibro/:titolo</t>
-  </si>
-  <si>
     <t>prenotazioni (/prenotazioni)</t>
   </si>
   <si>
@@ -254,23 +254,20 @@
     <t>Ritorna tutti gli utenti</t>
   </si>
   <si>
-    <t>/associaAutore</t>
-  </si>
-  <si>
-    <t>Permette di inserire gli autori di un libro</t>
-  </si>
-  <si>
-    <t>libro, autore</t>
-  </si>
-  <si>
-    <t>titolo, genere, trama, copertina, quantita</t>
+    <t>/cercaLibro/:libro</t>
+  </si>
+  <si>
+    <t>Ritorna tutti i libri paginando il risultato</t>
+  </si>
+  <si>
+    <t>/getAll2?page={valore}&amp;pagesize={valore}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,14 +313,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -416,7 +405,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -459,7 +448,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
@@ -778,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51079965-0911-4C16-8846-B27DF99EC931}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +794,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -824,7 +812,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -832,7 +820,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -846,7 +834,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -872,21 +860,21 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -894,7 +882,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -920,7 +908,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -928,7 +916,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -940,7 +928,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -948,7 +936,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -960,7 +948,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -974,7 +962,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -982,7 +970,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -994,7 +982,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -1006,10 +994,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
@@ -1018,29 +1006,27 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1093,13 +1079,13 @@
         <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1119,7 +1105,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1145,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1161,7 +1147,7 @@
         <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1173,7 +1159,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1185,19 +1171,19 @@
         <v>67</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\PAWM\library_backend\Documentazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\Primo_semestre\PAWM\library_backend\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DEBD1C-B4CC-408A-89FE-86BCFE299081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E94B9D-BB2D-4AAF-A94E-B81B4527F5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>URL</t>
   </si>
@@ -74,9 +74,6 @@
     <t>/getAuthorBooks/:autore</t>
   </si>
   <si>
-    <t>Parametri POST/PUT</t>
-  </si>
-  <si>
     <t>Ritorna tutti i libri scritti da un autore</t>
   </si>
   <si>
@@ -230,15 +227,9 @@
     <t>upload (/upload)</t>
   </si>
   <si>
-    <t>/getNumberLibriMese/:id</t>
-  </si>
-  <si>
     <t>/getGeneriUtente/:id</t>
   </si>
   <si>
-    <t>/getAllNumberLibriMese</t>
-  </si>
-  <si>
     <t>/getAllGeneri</t>
   </si>
   <si>
@@ -261,6 +252,18 @@
   </si>
   <si>
     <t>/getAll2?page={valore}&amp;pagesize={valore}</t>
+  </si>
+  <si>
+    <t>/getAllNumberLibriMese/:anno</t>
+  </si>
+  <si>
+    <t>Parametri</t>
+  </si>
+  <si>
+    <t>/getNumberLibriMese</t>
+  </si>
+  <si>
+    <t>anno, utente</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51079965-0911-4C16-8846-B27DF99EC931}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,12 +792,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -812,7 +815,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -820,7 +823,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -834,7 +837,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -848,10 +851,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -860,21 +863,21 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -882,7 +885,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -899,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -916,10 +919,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -928,7 +931,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -936,10 +939,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -948,21 +951,21 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -970,10 +973,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -982,10 +985,10 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -994,10 +997,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
@@ -1006,10 +1009,10 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1018,10 +1021,10 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1038,10 +1041,10 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1050,10 +1053,10 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1062,38 +1065,38 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
@@ -1102,10 +1105,10 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1122,21 +1125,21 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1144,22 +1147,24 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1168,10 +1173,10 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1180,10 +1185,10 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>

--- a/Documentazione/API.xlsx
+++ b/Documentazione/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matteo\Unicam\Terzo_anno\Primo_semestre\PAWM\library_backend\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E94B9D-BB2D-4AAF-A94E-B81B4527F5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9DE37A-26B2-441E-B9C7-5CFE28B50962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E30B0C66-26CB-4983-9421-77B05EA432D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>URL</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>anno, utente</t>
+  </si>
+  <si>
+    <t>Ritorna tutti gli autori</t>
   </si>
 </sst>
 </file>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51079965-0911-4C16-8846-B27DF99EC931}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,298 +888,298 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>32</v>
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1185,27 +1188,39 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8CE0C006-B22F-4FDC-94F5-58FC348B0108}"/>
